--- a/content/course-econometrics-master/data/syllabus.xlsx
+++ b/content/course-econometrics-master/data/syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\netlify\content\course-econometrics-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F58139-4F8E-444B-B92D-3A3CF62D1981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4277E001-0A9F-474F-9C8C-D9A33AFA2A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9892" yWindow="8063" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>part01-slide-01-reg-basi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>part01-slide-02-reg-matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,26 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第04章 放宽假设：异方差性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第04章 放宽假设：自相关性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第04章 放宽假设：内生变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第05章 扩展方法：虚拟变量模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第05章 扩展方法：函数形式选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第18章 联立方程模型的本质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +186,30 @@
   </si>
   <si>
     <t>slide-chn-part2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part01-slide-01-reg-basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第03章 放宽假设：异方差性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第03章 放宽假设：自相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第03章 放宽假设：内生变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第04章 扩展方法：函数形式选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第04章 扩展方法：虚拟变量模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,8 +253,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,21 +541,21 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.75" customWidth="1"/>
-    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
     <col min="14" max="14" width="13.5" customWidth="1"/>
@@ -563,7 +566,7 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
@@ -579,13 +582,13 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -610,7 +613,7 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -623,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -634,25 +637,25 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -660,25 +663,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -686,25 +689,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -712,25 +715,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -738,25 +741,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -764,25 +767,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
@@ -790,25 +793,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -816,25 +819,25 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
@@ -842,25 +845,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -868,25 +871,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
@@ -894,25 +897,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" t="s">
         <v>11</v>

--- a/content/course-econometrics-master/data/syllabus.xlsx
+++ b/content/course-econometrics-master/data/syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\netlify\content\course-econometrics-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4277E001-0A9F-474F-9C8C-D9A33AFA2A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6BDB92-419D-429A-8505-CBEAB4DB6D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9892" yWindow="8063" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9892" yWindow="8078" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>status_slide</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>第04章 扩展方法：虚拟变量模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir_exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework-week01-classic-model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512DA56F-F0A1-490C-9B7E-8055C16647CB}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,14 +567,15 @@
     <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -594,22 +607,25 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -632,10 +648,13 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -658,10 +677,13 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -684,10 +706,13 @@
         <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -710,10 +735,13 @@
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -736,10 +764,13 @@
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -762,10 +793,13 @@
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -788,10 +822,13 @@
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -814,10 +851,13 @@
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -840,10 +880,13 @@
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -866,10 +909,13 @@
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -892,10 +938,13 @@
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -918,6 +967,9 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
         <v>11</v>
       </c>
     </row>

--- a/content/course-econometrics-master/data/syllabus.xlsx
+++ b/content/course-econometrics-master/data/syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\netlify\content\course-econometrics-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6BDB92-419D-429A-8505-CBEAB4DB6D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E525E4-84C6-4BAD-A7DB-FD26CD07DA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9892" yWindow="8078" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9892" yWindow="8002" windowWidth="24495" windowHeight="15676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>part01-slide-03-reg-relax-04-endogeneity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>part01-slide-04-reg-extention-01-function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第03章 放宽假设：内生变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第04章 扩展方法：函数形式选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +214,14 @@
   </si>
   <si>
     <t>homework-week01-classic-model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第17章 内生性问题与工具变量法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEM-slide-part0-endogeneity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512DA56F-F0A1-490C-9B7E-8055C16647CB}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,19 +595,19 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -642,13 +642,13 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -656,42 +656,42 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -700,13 +700,13 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
         <v>11</v>
@@ -714,13 +714,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -729,13 +729,13 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
         <v>11</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -758,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -787,13 +787,13 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -816,13 +816,13 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -830,13 +830,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -845,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -862,25 +862,25 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
@@ -888,28 +888,28 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
@@ -917,28 +917,28 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
         <v>11</v>
@@ -946,28 +946,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
         <v>11</v>
